--- a/biology/Virologie/Klosneuvirus/Klosneuvirus.xlsx
+++ b/biology/Virologie/Klosneuvirus/Klosneuvirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Klosneuvirus est un virus géant découvert en Autriche dans une station de traitement des eaux usées de Klosterneuburg lors d'analyses métagénomiques. Il appartient au groupe des Klosneuvirinae, une sous-famille des Mimiviridae[1]. 
+Klosneuvirus est un virus géant découvert en Autriche dans une station de traitement des eaux usées de Klosterneuburg lors d'analyses métagénomiques. Il appartient au groupe des Klosneuvirinae, une sous-famille des Mimiviridae. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le génome de ce virus contient 1.57 Mb avec une suite de gènes cellulaires. Les gènes de Klosneuvirus contiennent des enzymes aminoacyl-ARNt synthétases avec une spécificité pour 19 des 20 acides aminés ainsi que plus de 20 ARNt et des facteurs d'initiation modifiant l'ARNt[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le génome de ce virus contient 1.57 Mb avec une suite de gènes cellulaires. Les gènes de Klosneuvirus contiennent des enzymes aminoacyl-ARNt synthétases avec une spécificité pour 19 des 20 acides aminés ainsi que plus de 20 ARNt et des facteurs d'initiation modifiant l'ARNt. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son hôte prédit sont les protistes. L'impact de Klosneuvirus sur les protistes est impliqué dans la régulation du cycle biogéochimique de la planète[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son hôte prédit sont les protistes. L'impact de Klosneuvirus sur les protistes est impliqué dans la régulation du cycle biogéochimique de la planète.
 </t>
         </is>
       </c>
